--- a/medicine/Œil et vue/Cube_de_Necker/Cube_de_Necker.xlsx
+++ b/medicine/Œil et vue/Cube_de_Necker/Cube_de_Necker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cube de Necker est une image ambigüe provoquant une illusion d'optique, mentionnée pour la première fois avec un dessin en perspective cavalière d'un rhomboïde en 1832 par le cristallographe suisse Louis-Albert Necker[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cube de Necker est une image ambigüe provoquant une illusion d'optique, mentionnée pour la première fois avec un dessin en perspective cavalière d'un rhomboïde en 1832 par le cristallographe suisse Louis-Albert Necker.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Ambiguïté</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cube de Necker est un dessin ambigu. C'est un dessin des arêtes d'un cube en perspective cavalière, ce qui signifie que les bords parallèles du cube sont dessinés avec des lignes parallèles sur le dessin. Quand deux lignes se croisent, le dessin ne montre pas laquelle est devant et laquelle est derrière. Ceci rend le dessin ambigu ; il peut être interprété de deux manières différentes. Quand une personne observe le dessin, elle remarquera alternativement chacune des deux interprétations valides (c'est une perception multistable (en)).
 L'effet est intéressant, car chaque partie de dessin est elle-même ambiguë, l'œil humain fait alors une interprétation individuelle de chaque partie qui rend le tout homogène. Le cube de Necker est souvent utilisé pour tester les modèles informatiques du système visuel humain pour voir s'ils parviennent à une interprétation de l'image similaire à celle d'un humain.
@@ -546,7 +560,9 @@
           <t>Théorie de la connaissance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cube de Necker est utilisé en théorie de la connaissance et permet de contre-attaquer le réalisme naïf, concept qui veut que le monde soit tel que nous le percevons.
 Le cube de Necker semble démonter cette théorie : nous voyons un cube, mais en réalité il n'y a pas de cube du tout, juste une figure à 2 dimensions de 12 lignes. Nous voyons quelque chose qui n'est pas vraiment là, ce qui désapprouverait le réalisme naïf. Cette critique du réalisme naïf soutient la thèse du réalisme représentatif.
